--- a/biology/Botanique/Comastoma/Comastoma.xlsx
+++ b/biology/Botanique/Comastoma/Comastoma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Comastoma est un genre de plantes de la famille des Gentianacées.
 </t>
@@ -511,13 +523,15 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (21 mars 2023)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (21 mars 2023) :
 Comastoma tenellum (Rottb.) Tokoyuni
-Selon ITIS      (21 mars 2023)[2] :
+Selon ITIS      (21 mars 2023) :
 Comastoma tenellum (Rottb.) Toyok.
-Selon NCBI  (21 mars 2023)[3] :
+Selon NCBI  (21 mars 2023) :
 Comastoma cyananthiflorum (Franch.) Holub
 Comastoma falcatum (Turcz. ex Kar. &amp; Kir.) Toyok.
 Comastoma jigzhiense T.N.Ho &amp; J.Q.Liu
@@ -529,7 +543,7 @@
 Comastoma stellariifolium (Franch.) Holub
 Comastoma tenellum (Rottb.) Toyok.
 Comastoma traillianum (Forrest) Holub
-Selon The Plant List            (21 mars 2023)[4] :
+Selon The Plant List            (21 mars 2023) :
 Comastoma cyananthiflorum (Franch.) Holub
 Comastoma dechyanum (Sommier &amp; Levier) Holub
 Comastoma disepalum H.W.Li ex T.N.Ho
@@ -548,7 +562,7 @@
 Comastoma tenellum (Rottb.) Toyok.
 Comastoma traillianum (Forrest) Holub
 Comastoma urnigera (E.Aitken &amp; D.G.Long) Holub
-Selon Tropicos                                           (21 mars 2023)[5] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (21 mars 2023) (Attention liste brute contenant possiblement des synonymes) :
 Comastoma arrectum Holub
 Comastoma azureum (Bunge) Zuev
 Comastoma beesianum (W.W. Sm.) Holub
